--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1013556.607422</v>
+        <v>1010896.763896922</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673442</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.107907201217</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>12.95383262423903</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>65.92991264744158</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>21.52598804182478</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>200.9838803217804</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>204.2487690948331</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>27.16918131360506</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>206.3137109670454</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.24364034742719</v>
+        <v>158.131255837012</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>92.54004601234838</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>209.7046517124902</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1009251344199</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>266.543836993994</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>135.7067558814507</v>
       </c>
       <c r="H9" t="n">
-        <v>96.42777606792041</v>
+        <v>96.42777606792038</v>
       </c>
       <c r="I9" t="n">
-        <v>33.04322907152312</v>
+        <v>33.04322907152305</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>79.12437605678403</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>150.0270165858486</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.1027954790071</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>222.082528811566</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2441817741499</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.9560686026345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>263.6671062005968</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3012171022932</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
@@ -1388,7 +1388,7 @@
         <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238027</v>
+        <v>22.60777203238047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114112</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>9.753166794035309</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034039</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>79.00824149146349</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>146.7251291621809</v>
+        <v>36.12932374479016</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754683</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446353023</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.19837208689</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>11.96664103543213</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795608</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784684</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>283.0680363729404</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>104.4262124629288</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187874</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>3.475606507923444</v>
+        <v>102.1557845699842</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892416</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>246.2025596887072</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.799772605716393</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.176346405347</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987833667</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.503727951294</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>180.8744396653762</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833772</v>
       </c>
       <c r="F43" t="n">
-        <v>107.0531836110635</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>123.9815576456777</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,10 +4147,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,10 +4189,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>274.2445979121675</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1522.185532827041</v>
+        <v>902.5373151068286</v>
       </c>
       <c r="C2" t="n">
-        <v>1153.22301588663</v>
+        <v>902.5373151068286</v>
       </c>
       <c r="D2" t="n">
-        <v>794.9573172798794</v>
+        <v>902.5373151068286</v>
       </c>
       <c r="E2" t="n">
-        <v>794.9573172798794</v>
+        <v>516.7490625085843</v>
       </c>
       <c r="F2" t="n">
-        <v>788.0118165306759</v>
+        <v>503.664383090161</v>
       </c>
       <c r="G2" t="n">
-        <v>370.9240347671034</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H2" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
@@ -4331,22 +4331,22 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K2" t="n">
-        <v>156.4983241075885</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L2" t="n">
-        <v>683.1408478992852</v>
+        <v>616.7309383942948</v>
       </c>
       <c r="M2" t="n">
-        <v>1314.858658882597</v>
+        <v>1248.448749377606</v>
       </c>
       <c r="N2" t="n">
-        <v>1942.166326942443</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O2" t="n">
-        <v>2489.327531709521</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P2" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4355,25 +4355,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T2" t="n">
-        <v>2420.246115248354</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U2" t="n">
-        <v>2420.246115248354</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V2" t="n">
-        <v>2420.246115248354</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W2" t="n">
-        <v>2067.477459978239</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="X2" t="n">
-        <v>1694.01170171716</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="Y2" t="n">
-        <v>1694.01170171716</v>
+        <v>1289.13715517095</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>52.70091953961264</v>
       </c>
       <c r="J3" t="n">
-        <v>171.3601713965083</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="K3" t="n">
-        <v>500.7885757023182</v>
+        <v>382.1293238454225</v>
       </c>
       <c r="L3" t="n">
-        <v>1005.150115568437</v>
+        <v>528.1332110007634</v>
       </c>
       <c r="M3" t="n">
-        <v>1645.695465035541</v>
+        <v>1168.678560467868</v>
       </c>
       <c r="N3" t="n">
-        <v>1844.352206688206</v>
+        <v>1820.852439770577</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.341267297828</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P3" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980642</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2042.443242746564</v>
+        <v>516.110805624533</v>
       </c>
       <c r="C4" t="n">
-        <v>2042.443242746564</v>
+        <v>516.110805624533</v>
       </c>
       <c r="D4" t="n">
-        <v>2042.443242746564</v>
+        <v>516.110805624533</v>
       </c>
       <c r="E4" t="n">
-        <v>2042.443242746564</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="F4" t="n">
-        <v>2042.443242746564</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G4" t="n">
-        <v>1873.836397741947</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>1719.581754641712</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
-        <v>1652.98588328066</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>1736.159225116907</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L4" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M4" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N4" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O4" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P4" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q4" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R4" t="n">
-        <v>2504.568015700045</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S4" t="n">
-        <v>2297.127730952451</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T4" t="n">
-        <v>2297.127730952451</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U4" t="n">
-        <v>2297.127730952451</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V4" t="n">
-        <v>2042.443242746564</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="W4" t="n">
-        <v>2042.443242746564</v>
+        <v>516.110805624533</v>
       </c>
       <c r="X4" t="n">
-        <v>2042.443242746564</v>
+        <v>516.110805624533</v>
       </c>
       <c r="Y4" t="n">
-        <v>2042.443242746564</v>
+        <v>516.110805624533</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1239.040304699543</v>
+        <v>1635.525375631449</v>
       </c>
       <c r="C5" t="n">
-        <v>1239.040304699543</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="D5" t="n">
-        <v>880.774606092793</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E5" t="n">
         <v>880.774606092793</v>
@@ -4565,22 +4565,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K5" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L5" t="n">
-        <v>616.7309383942948</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M5" t="n">
-        <v>803.4303512197024</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N5" t="n">
-        <v>1413.39376509937</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O5" t="n">
-        <v>1960.554969866447</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P5" t="n">
         <v>2389.870016205742</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2420.246115248354</v>
+        <v>2275.81691895042</v>
       </c>
       <c r="U5" t="n">
-        <v>2166.554411993505</v>
+        <v>2022.125215695571</v>
       </c>
       <c r="V5" t="n">
-        <v>1835.491524649934</v>
+        <v>2022.125215695571</v>
       </c>
       <c r="W5" t="n">
-        <v>1835.491524649934</v>
+        <v>2022.125215695571</v>
       </c>
       <c r="X5" t="n">
-        <v>1629.179636675355</v>
+        <v>2022.125215695571</v>
       </c>
       <c r="Y5" t="n">
-        <v>1239.040304699543</v>
+        <v>2022.125215695571</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4644,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>500.7885757023184</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L6" t="n">
-        <v>1005.150115568437</v>
+        <v>599.2575280293014</v>
       </c>
       <c r="M6" t="n">
-        <v>1622.195698117913</v>
+        <v>778.7548643839062</v>
       </c>
       <c r="N6" t="n">
-        <v>1820.852439770578</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O6" t="n">
         <v>1980.364752439338</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>239.1823523035921</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C7" t="n">
-        <v>239.1823523035921</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>239.1823523035921</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
-        <v>239.1823523035921</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
-        <v>239.1823523035921</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>845.195316251363</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T7" t="n">
-        <v>845.195316251363</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="U7" t="n">
-        <v>556.0431398290427</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="V7" t="n">
-        <v>528.5995223405528</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="W7" t="n">
-        <v>239.1823523035921</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="X7" t="n">
-        <v>239.1823523035921</v>
+        <v>261.0986073851133</v>
       </c>
       <c r="Y7" t="n">
-        <v>239.1823523035921</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1589.070605956877</v>
+        <v>1040.077971037353</v>
       </c>
       <c r="C8" t="n">
-        <v>1220.108089016465</v>
+        <v>671.115454096941</v>
       </c>
       <c r="D8" t="n">
-        <v>861.8423904097144</v>
+        <v>312.8497554901905</v>
       </c>
       <c r="E8" t="n">
-        <v>476.0541378114701</v>
+        <v>312.8497554901905</v>
       </c>
       <c r="F8" t="n">
-        <v>65.06823302186254</v>
+        <v>305.904254740987</v>
       </c>
       <c r="G8" t="n">
-        <v>52.70091953961285</v>
+        <v>146.1757134914799</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>146.1757134914799</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>130.5061518135612</v>
+        <v>130.5061518135615</v>
       </c>
       <c r="K8" t="n">
-        <v>468.9052836414246</v>
+        <v>618.7585027578352</v>
       </c>
       <c r="L8" t="n">
-        <v>713.4175243512652</v>
+        <v>863.2707434676764</v>
       </c>
       <c r="M8" t="n">
-        <v>1017.153942050056</v>
+        <v>1167.007161166468</v>
       </c>
       <c r="N8" t="n">
-        <v>1669.327821352765</v>
+        <v>1819.181040469176</v>
       </c>
       <c r="O8" t="n">
-        <v>2321.501700655474</v>
+        <v>2101.653034498189</v>
       </c>
       <c r="P8" t="n">
-        <v>2528.084011479728</v>
+        <v>2308.235345322444</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.045976980643</v>
+        <v>2593.177001405962</v>
       </c>
       <c r="R8" t="n">
         <v>2635.045976980643</v>
@@ -4832,22 +4832,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2423.223096462976</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.045976980643</v>
+        <v>2169.5857983474</v>
       </c>
       <c r="V8" t="n">
-        <v>2635.045976980643</v>
+        <v>2169.5857983474</v>
       </c>
       <c r="W8" t="n">
-        <v>2635.045976980643</v>
+        <v>1816.817143077286</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.80977799681</v>
+        <v>1816.817143077286</v>
       </c>
       <c r="Y8" t="n">
-        <v>1975.670446020998</v>
+        <v>1426.677811101474</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>949.7166957240912</v>
+        <v>949.716695724091</v>
       </c>
       <c r="C9" t="n">
-        <v>775.2636664429642</v>
+        <v>775.263666442964</v>
       </c>
       <c r="D9" t="n">
-        <v>626.329256781713</v>
+        <v>626.3292567817127</v>
       </c>
       <c r="E9" t="n">
-        <v>467.0918017762574</v>
+        <v>467.0918017762573</v>
       </c>
       <c r="F9" t="n">
-        <v>320.5572438031424</v>
+        <v>320.5572438031422</v>
       </c>
       <c r="G9" t="n">
-        <v>183.4797126097579</v>
+        <v>183.4797126097577</v>
       </c>
       <c r="H9" t="n">
-        <v>86.07791860175743</v>
+        <v>86.07791860175735</v>
       </c>
       <c r="I9" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>205.0534608927865</v>
+        <v>205.0534608927867</v>
       </c>
       <c r="K9" t="n">
-        <v>592.0690635359283</v>
+        <v>592.0690635359288</v>
       </c>
       <c r="L9" t="n">
-        <v>806.7317564178421</v>
+        <v>1148.67611611893</v>
       </c>
       <c r="M9" t="n">
-        <v>1076.589862198192</v>
+        <v>1418.534221899281</v>
       </c>
       <c r="N9" t="n">
-        <v>1394.665172713993</v>
+        <v>1709.94331366753</v>
       </c>
       <c r="O9" t="n">
-        <v>2028.951461180034</v>
+        <v>2344.229602133571</v>
       </c>
       <c r="P9" t="n">
         <v>2521.019059663608</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.5567829601589</v>
+        <v>434.283612126325</v>
       </c>
       <c r="C10" t="n">
-        <v>497.620600032252</v>
+        <v>434.283612126325</v>
       </c>
       <c r="D10" t="n">
-        <v>347.5039606199163</v>
+        <v>284.1669727139893</v>
       </c>
       <c r="E10" t="n">
-        <v>199.5908670375232</v>
+        <v>204.2433605354195</v>
       </c>
       <c r="F10" t="n">
-        <v>52.70091953961285</v>
+        <v>204.2433605354195</v>
       </c>
       <c r="G10" t="n">
-        <v>52.70091953961285</v>
+        <v>204.2433605354195</v>
       </c>
       <c r="H10" t="n">
         <v>52.70091953961285</v>
@@ -4960,52 +4960,52 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
-        <v>56.32012312205248</v>
+        <v>56.32012312205261</v>
       </c>
       <c r="K10" t="n">
-        <v>192.1044230969983</v>
+        <v>192.1044230969986</v>
       </c>
       <c r="L10" t="n">
-        <v>421.3880127696211</v>
+        <v>421.3880127696216</v>
       </c>
       <c r="M10" t="n">
-        <v>673.5245332424498</v>
+        <v>673.5245332424506</v>
       </c>
       <c r="N10" t="n">
-        <v>925.1004272331209</v>
+        <v>925.100427233122</v>
       </c>
       <c r="O10" t="n">
-        <v>1141.455188557394</v>
+        <v>1141.455188557395</v>
       </c>
       <c r="P10" t="n">
-        <v>1303.063381081415</v>
+        <v>1303.063381081417</v>
       </c>
       <c r="Q10" t="n">
-        <v>1331.517436617899</v>
+        <v>1331.517436617901</v>
       </c>
       <c r="R10" t="n">
-        <v>1331.517436617899</v>
+        <v>1331.517436617901</v>
       </c>
       <c r="S10" t="n">
-        <v>1331.517436617899</v>
+        <v>1129.39340078052</v>
       </c>
       <c r="T10" t="n">
-        <v>1331.517436617899</v>
+        <v>905.0676141021706</v>
       </c>
       <c r="U10" t="n">
-        <v>1331.517436617899</v>
+        <v>615.9320769565647</v>
       </c>
       <c r="V10" t="n">
-        <v>1331.517436617899</v>
+        <v>615.9320769565647</v>
       </c>
       <c r="W10" t="n">
-        <v>1042.100266580939</v>
+        <v>615.9320769565647</v>
       </c>
       <c r="X10" t="n">
-        <v>1042.100266580939</v>
+        <v>615.9320769565647</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.2052477903986</v>
+        <v>615.9320769565647</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2240.483383105789</v>
+        <v>1535.258832689346</v>
       </c>
       <c r="C11" t="n">
-        <v>1871.520866165377</v>
+        <v>1166.296315748934</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>1166.296315748934</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>808.4162984738909</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738907</v>
+        <v>808.4162984738909</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035379</v>
+        <v>393.840852803538</v>
       </c>
       <c r="H11" t="n">
         <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386831</v>
+        <v>308.7333971386824</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>704.5155104420305</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301222</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878106</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2485.180661765421</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687101</v>
+        <v>3070.226377687097</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856284</v>
+        <v>3535.048359856279</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882242</v>
+        <v>3835.937563882237</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234592</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234592</v>
+        <v>3826.588132455656</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750372</v>
+        <v>3622.786021971436</v>
       </c>
       <c r="U11" t="n">
-        <v>3721.751200750372</v>
+        <v>3369.295305604044</v>
       </c>
       <c r="V11" t="n">
-        <v>3390.688313406802</v>
+        <v>3038.232418260473</v>
       </c>
       <c r="W11" t="n">
-        <v>3390.688313406802</v>
+        <v>2685.463762990359</v>
       </c>
       <c r="X11" t="n">
-        <v>3017.222555145722</v>
+        <v>2311.998004729279</v>
       </c>
       <c r="Y11" t="n">
-        <v>2627.083223169911</v>
+        <v>1921.858672753468</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792129</v>
+        <v>196.8120623792125</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376503</v>
+        <v>477.1621322376495</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649599</v>
+        <v>900.4499396649587</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282788</v>
+        <v>1413.763713908847</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1518.698809735876</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601624</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1094.703173037794</v>
+        <v>395.3603427349918</v>
       </c>
       <c r="C13" t="n">
-        <v>925.7669901098875</v>
+        <v>226.4241598070848</v>
       </c>
       <c r="D13" t="n">
-        <v>775.6503506975517</v>
+        <v>226.4241598070848</v>
       </c>
       <c r="E13" t="n">
-        <v>627.7372571151586</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="F13" t="n">
-        <v>480.8473096172482</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="G13" t="n">
-        <v>313.367412093791</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="J13" t="n">
-        <v>139.08183346004</v>
+        <v>139.0818334600398</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457704</v>
+        <v>368.4550473457699</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.5002252888909</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014274</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014274</v>
+        <v>1888.302075370154</v>
       </c>
       <c r="T13" t="n">
-        <v>2076.102739014274</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1787.012032454562</v>
+        <v>1378.397311360488</v>
       </c>
       <c r="V13" t="n">
-        <v>1532.327544248675</v>
+        <v>1123.712823154601</v>
       </c>
       <c r="W13" t="n">
-        <v>1242.910374211714</v>
+        <v>834.2956531176405</v>
       </c>
       <c r="X13" t="n">
-        <v>1094.703173037794</v>
+        <v>797.8013867087616</v>
       </c>
       <c r="Y13" t="n">
-        <v>1094.703173037794</v>
+        <v>577.0088075652315</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
@@ -5303,25 +5303,25 @@
         <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>424.3593983639619</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331906</v>
+        <v>424.3593983639619</v>
       </c>
       <c r="M15" t="n">
-        <v>964.2196729446335</v>
+        <v>1016.37775261609</v>
       </c>
       <c r="N15" t="n">
-        <v>1586.31563634397</v>
+        <v>1550.98943211006</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>2097.865907110254</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>701.6502561102855</v>
+        <v>494.0589900220744</v>
       </c>
       <c r="C16" t="n">
-        <v>532.7140731823786</v>
+        <v>389.8182101363267</v>
       </c>
       <c r="D16" t="n">
-        <v>382.5974337700427</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="E16" t="n">
-        <v>234.6843401876497</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F16" t="n">
-        <v>234.6843401876497</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876497</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
         <v>92.81162322608056</v>
@@ -5440,7 +5440,7 @@
         <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5455,31 +5455,31 @@
         <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410169</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2360.51642936867</v>
       </c>
       <c r="S16" t="n">
         <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2165.258722910193</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1876.18250922492</v>
+        <v>1668.591243136709</v>
       </c>
       <c r="V16" t="n">
-        <v>1621.498021019033</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1332.080850982073</v>
+        <v>1124.489584893862</v>
       </c>
       <c r="X16" t="n">
-        <v>1104.091300084055</v>
+        <v>896.5000339958442</v>
       </c>
       <c r="Y16" t="n">
-        <v>883.2987209405252</v>
+        <v>675.7074548523141</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5501,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>150.8995423128889</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133953</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5677,7 +5677,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5792,10 +5792,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232835</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1941.434309135585</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1686.749820929698</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1397.332650892738</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1169.343099994721</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>948.5505208511905</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6157,10 +6157,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.78619868161</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.9745311434713</v>
+        <v>513.8536007400742</v>
       </c>
       <c r="C28" t="n">
-        <v>701.0383482155644</v>
+        <v>344.9174178121673</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.415575117241</v>
+        <v>916.294644713844</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703139</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>554.5813165460165</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>385.6451336181096</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>235.5284942057738</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,7 +6622,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>957.0223605197864</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>736.2297813762563</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,16 +6695,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,19 +6780,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>184.7035232280583</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908933</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908933</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908934</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>538.7363435406112</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406112</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7105,40 +7105,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1458.584108449359</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1169.166938412398</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>941.1773875143811</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>720.3848083708509</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7178,7 +7178,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>809.0422355233309</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>640.106052595424</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>489.9894131830882</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830882</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851778</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.6907003535706</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>808.8888553856868</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>808.8888553856868</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D43" t="n">
-        <v>658.7722159733512</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E43" t="n">
-        <v>510.859122390958</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7582,37 +7582,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.329899359457</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>990.5373202159266</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,37 +7658,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>847.6442739835327</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835327</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711968</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888038</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908935</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1767.49203889228</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1767.49203889228</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>1029.292738813772</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>391.2261292428723</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>292.1126504237868</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>8.862918322875657</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O3" t="n">
-        <v>186.3401494352136</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>419.8274757451364</v>
+        <v>154.8683541940946</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,22 +8292,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>345.1708998087248</v>
       </c>
       <c r="M6" t="n">
-        <v>441.9679254493647</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,7 +8453,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>172.7785245747912</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,19 +8462,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>342.3322024647183</v>
+        <v>342.3322024647177</v>
       </c>
       <c r="O8" t="n">
-        <v>373.4362477512093</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>179.7774652349524</v>
       </c>
       <c r="R8" t="n">
-        <v>23.42452535310309</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,25 +8535,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>345.3983431324112</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>26.93557449247692</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44.05672894381736</v>
+        <v>44.05672894381723</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.972915003185951e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-7.230383528612801e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>91.01593542008612</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>27.62915296996863</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034045</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>78.98452622685625</v>
+        <v>189.580331644247</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613728928</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613728939</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>64.04844901173779</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440902</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>205.5153534273297</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253398</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>3.116438016303746</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>114.158440889166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1398665102889</v>
+        <v>46.45968844822815</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>40.32043864788378</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>146.815700412496</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194124</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303787</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.63391537253403</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393041</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>44.83521572366092</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="F43" t="n">
-        <v>38.3678644118677</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>43.26526345295009</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,10 +26077,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>11.93987647707669</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>889956.7824767567</v>
+        <v>889956.7824767563</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131185</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131185</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131184</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131185</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131185</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131185</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131184</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253561</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
         <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253556</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795041</v>
+        <v>405380.8397795039</v>
       </c>
       <c r="F2" t="n">
-        <v>441473.8744009171</v>
+        <v>441473.874400917</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="H2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="I2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="J2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="L2" t="n">
         <v>443930.6298295033</v>
-      </c>
-      <c r="K2" t="n">
-        <v>443930.6298295036</v>
-      </c>
-      <c r="L2" t="n">
-        <v>443930.6298295034</v>
       </c>
       <c r="M2" t="n">
         <v>443930.6298295035</v>
@@ -26350,10 +26350,10 @@
         <v>443930.6298295034</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295031</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295032</v>
       </c>
     </row>
     <row r="3">
@@ -26369,19 +26369,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>143427.3523991849</v>
+        <v>143427.3523991857</v>
       </c>
       <c r="E3" t="n">
-        <v>458840.6534729328</v>
+        <v>458840.6534729307</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051381</v>
+        <v>166521.3471051394</v>
       </c>
       <c r="G3" t="n">
         <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>80399.89743135517</v>
+        <v>80399.89743135481</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848914</v>
+        <v>43782.40655848951</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224738</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>183955.1029744945</v>
       </c>
       <c r="D4" t="n">
-        <v>156827.9060218338</v>
+        <v>156827.9060218336</v>
       </c>
       <c r="E4" t="n">
-        <v>6188.359574389009</v>
+        <v>6188.359574389008</v>
       </c>
       <c r="F4" t="n">
         <v>6280.9479104697</v>
       </c>
       <c r="G4" t="n">
+        <v>6287.480531695062</v>
+      </c>
+      <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="H4" t="n">
-        <v>6287.480531695028</v>
-      </c>
       <c r="I4" t="n">
-        <v>6287.480531695023</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.48053169503</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695026</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695031</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695033</v>
+        <v>6287.480531695058</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>86618.07783747558</v>
       </c>
       <c r="D5" t="n">
-        <v>90269.01801629357</v>
+        <v>90269.01801629359</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214713</v>
+        <v>86093.72216214701</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-611647.6210975989</v>
       </c>
       <c r="C6" t="n">
-        <v>180999.7926133859</v>
+        <v>180999.7926133858</v>
       </c>
       <c r="D6" t="n">
-        <v>61048.6969880433</v>
+        <v>61048.69698804276</v>
       </c>
       <c r="E6" t="n">
-        <v>-145741.8954299648</v>
+        <v>-145951.8596738075</v>
       </c>
       <c r="F6" t="n">
-        <v>168529.4508714708</v>
+        <v>168483.5458759038</v>
       </c>
       <c r="G6" t="n">
-        <v>325353.3832383225</v>
+        <v>325318.6453128867</v>
       </c>
       <c r="H6" t="n">
-        <v>336520.6194739011</v>
+        <v>336485.8815484655</v>
       </c>
       <c r="I6" t="n">
-        <v>336520.6194739012</v>
+        <v>336485.8815484654</v>
       </c>
       <c r="J6" t="n">
-        <v>164159.6270736203</v>
+        <v>164124.8891481847</v>
       </c>
       <c r="K6" t="n">
-        <v>336520.6194739015</v>
+        <v>336485.8815484655</v>
       </c>
       <c r="L6" t="n">
-        <v>336520.6194739012</v>
+        <v>336485.8815484652</v>
       </c>
       <c r="M6" t="n">
-        <v>256120.7220425461</v>
+        <v>256085.9841171108</v>
       </c>
       <c r="N6" t="n">
-        <v>292738.2129154121</v>
+        <v>292703.474989976</v>
       </c>
       <c r="O6" t="n">
-        <v>333497.3214966765</v>
+        <v>333462.5835712407</v>
       </c>
       <c r="P6" t="n">
-        <v>336520.6194739012</v>
+        <v>336485.8815484653</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26741,10 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>760.9504204673308</v>
+        <v>760.9504204673317</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26796,7 +26796,7 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086481</v>
+        <v>981.3883278086466</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26963,40 +26963,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>167.4743201292657</v>
+        <v>167.4743201292666</v>
       </c>
       <c r="E3" t="n">
-        <v>451.2198470272252</v>
+        <v>451.2198470272231</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218299</v>
+        <v>145.8707812218311</v>
       </c>
       <c r="G3" t="n">
         <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>322.6268335634875</v>
+        <v>322.626833563486</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173603</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364143</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>322.6268335634875</v>
+        <v>322.626833563486</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173603</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>322.6268335634875</v>
+        <v>322.626833563486</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173603</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.6259344622636</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>393.9222131174724</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>57.3366452319754</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>264.9970102947662</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>11.66798279318564</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>165.482331583636</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27795,7 +27795,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>224.9684620102229</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>12.27094238504941</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>254.1123845104151</v>
       </c>
       <c r="H8" t="n">
         <v>308.145823246979</v>
       </c>
       <c r="I8" t="n">
-        <v>92.54004601234851</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>139.3108928771024</v>
+        <v>139.3108928771023</v>
       </c>
       <c r="T8" t="n">
-        <v>209.7046517124902</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1009251344199</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>103.1872636844751</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>67.30958658978514</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.6187736822062</v>
       </c>
       <c r="H10" t="n">
-        <v>150.0270165858486</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>114.1845078632266</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>115.5940343340315</v>
+        <v>115.5940343340314</v>
       </c>
       <c r="S10" t="n">
-        <v>200.1027954790071</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>222.082528811566</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2441817741499</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.62858474946032</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.993400833307167e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-3.637292021582669e-14</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-8.286899273526947e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29487,7 +29487,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-12</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05909716770786</v>
+        <v>3.059097167707864</v>
       </c>
       <c r="H8" t="n">
-        <v>31.32897886878813</v>
+        <v>31.32897886878817</v>
       </c>
       <c r="I8" t="n">
-        <v>117.9358435580574</v>
+        <v>117.9358435580575</v>
       </c>
       <c r="J8" t="n">
-        <v>259.6370482377452</v>
+        <v>259.6370482377455</v>
       </c>
       <c r="K8" t="n">
-        <v>389.128631346819</v>
+        <v>389.1286313468195</v>
       </c>
       <c r="L8" t="n">
-        <v>482.7484762930586</v>
+        <v>482.7484762930591</v>
       </c>
       <c r="M8" t="n">
-        <v>537.1506955492832</v>
+        <v>537.1506955492838</v>
       </c>
       <c r="N8" t="n">
-        <v>545.8423553770332</v>
+        <v>545.8423553770339</v>
       </c>
       <c r="O8" t="n">
-        <v>515.4234579156381</v>
+        <v>515.4234579156388</v>
       </c>
       <c r="P8" t="n">
-        <v>439.9019965878502</v>
+        <v>439.9019965878508</v>
       </c>
       <c r="Q8" t="n">
-        <v>330.3480792693124</v>
+        <v>330.3480792693128</v>
       </c>
       <c r="R8" t="n">
-        <v>192.161012461029</v>
+        <v>192.1610124610293</v>
       </c>
       <c r="S8" t="n">
-        <v>69.70917670914294</v>
+        <v>69.70917670914302</v>
       </c>
       <c r="T8" t="n">
-        <v>13.39119785164116</v>
+        <v>13.39119785164118</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2447277734166288</v>
+        <v>0.244727773416629</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.636761281759919</v>
+        <v>1.636761281759921</v>
       </c>
       <c r="H9" t="n">
-        <v>15.80766816857606</v>
+        <v>15.80766816857608</v>
       </c>
       <c r="I9" t="n">
-        <v>56.35340377989196</v>
+        <v>56.35340377989203</v>
       </c>
       <c r="J9" t="n">
-        <v>154.6380472385545</v>
+        <v>154.6380472385547</v>
       </c>
       <c r="K9" t="n">
-        <v>264.3010531164691</v>
+        <v>264.3010531164693</v>
       </c>
       <c r="L9" t="n">
-        <v>355.3853826908983</v>
+        <v>355.3853826908987</v>
       </c>
       <c r="M9" t="n">
-        <v>414.7179791546952</v>
+        <v>414.7179791546957</v>
       </c>
       <c r="N9" t="n">
-        <v>425.694330031059</v>
+        <v>425.6943300310595</v>
       </c>
       <c r="O9" t="n">
-        <v>389.4271458404839</v>
+        <v>389.4271458404843</v>
       </c>
       <c r="P9" t="n">
-        <v>312.5496170406288</v>
+        <v>312.5496170406292</v>
       </c>
       <c r="Q9" t="n">
-        <v>208.9311418611434</v>
+        <v>208.9311418611436</v>
       </c>
       <c r="R9" t="n">
-        <v>101.6227750201466</v>
+        <v>101.6227750201467</v>
       </c>
       <c r="S9" t="n">
-        <v>30.40212293093532</v>
+        <v>30.40212293093536</v>
       </c>
       <c r="T9" t="n">
-        <v>6.597296569900724</v>
+        <v>6.597296569900732</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1076816632736789</v>
+        <v>0.1076816632736791</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.372205676252564</v>
+        <v>1.372205676252565</v>
       </c>
       <c r="H10" t="n">
-        <v>12.20015592159098</v>
+        <v>12.200155921591</v>
       </c>
       <c r="I10" t="n">
-        <v>41.26596706403165</v>
+        <v>41.2659670640317</v>
       </c>
       <c r="J10" t="n">
-        <v>97.01494131105623</v>
+        <v>97.01494131105636</v>
       </c>
       <c r="K10" t="n">
-        <v>159.4253503864342</v>
+        <v>159.4253503864344</v>
       </c>
       <c r="L10" t="n">
-        <v>204.0095602675857</v>
+        <v>204.009560267586</v>
       </c>
       <c r="M10" t="n">
-        <v>215.0994770511177</v>
+        <v>215.099477051118</v>
       </c>
       <c r="N10" t="n">
-        <v>209.9848922578129</v>
+        <v>209.9848922578132</v>
       </c>
       <c r="O10" t="n">
-        <v>193.9550350397715</v>
+        <v>193.9550350397718</v>
       </c>
       <c r="P10" t="n">
-        <v>165.9620392442191</v>
+        <v>165.9620392442193</v>
       </c>
       <c r="Q10" t="n">
-        <v>114.903513490567</v>
+        <v>114.9035134905671</v>
       </c>
       <c r="R10" t="n">
-        <v>61.69935704313798</v>
+        <v>61.69935704313805</v>
       </c>
       <c r="S10" t="n">
-        <v>23.91380255796512</v>
+        <v>23.91380255796515</v>
       </c>
       <c r="T10" t="n">
-        <v>5.863060616715497</v>
+        <v>5.863060616715504</v>
       </c>
       <c r="U10" t="n">
-        <v>0.074847582341049</v>
+        <v>0.0748475823410491</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485644</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508986</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380254</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>413.5937135307175</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>619.869763472605</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>769.0032542216964</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>855.6642913857416</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>869.5098341898378</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>821.0534800294399</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>700.7501494615129</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>526.2341787895582</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>306.1064947356978</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188514</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>89.76921320596469</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.3335823783038</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>421.0233277202549</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256415</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>236.0541786324415</v>
+        <v>660.6327957845323</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147139</v>
+        <v>237.3367583732607</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>620.3452877431803</v>
       </c>
       <c r="P12" t="n">
-        <v>497.881784020547</v>
+        <v>497.8817840205465</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071845</v>
+        <v>332.8207874071842</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697581</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236082</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>65.73539745691784</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.9596068619738</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>324.9808615509172</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263705</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.499378897309</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>308.9643167050056</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>98.28514988570599</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.339672552826894</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,13 +32081,13 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>192.8077453477182</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>671.3535095519898</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>184.4971006716334</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,7 +32321,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963282</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,16 +33284,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,7 +33500,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>229.6463482471735</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33980,7 +33980,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,10 +33989,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>225.4828684302374</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,16 +34699,16 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L2" t="n">
-        <v>531.9621452441381</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M2" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>633.6441091513602</v>
+        <v>488.4098351631629</v>
       </c>
       <c r="O2" t="n">
         <v>552.6880856233105</v>
@@ -34717,7 +34717,7 @@
         <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L3" t="n">
-        <v>509.4561008748672</v>
+        <v>147.4786738942837</v>
       </c>
       <c r="M3" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N3" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
-        <v>347.4636975854769</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P3" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>616.1246604845126</v>
+        <v>351.1655389334708</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>247.6524856312129</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>483.7866553801329</v>
       </c>
       <c r="M6" t="n">
-        <v>623.2783662115918</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>78.59114371105892</v>
+        <v>78.59114371105926</v>
       </c>
       <c r="K8" t="n">
-        <v>341.8173048766297</v>
+        <v>493.1841928730037</v>
       </c>
       <c r="L8" t="n">
-        <v>246.9820613230713</v>
+        <v>246.9820613230719</v>
       </c>
       <c r="M8" t="n">
-        <v>306.8044623220105</v>
+        <v>306.8044623220111</v>
       </c>
       <c r="N8" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="O8" t="n">
-        <v>658.7614942451606</v>
+        <v>285.325246493952</v>
       </c>
       <c r="P8" t="n">
-        <v>208.6690008325807</v>
+        <v>208.6690008325812</v>
       </c>
       <c r="Q8" t="n">
-        <v>108.0423893948629</v>
+        <v>287.8198546298157</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>42.29189451987958</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>153.8914559122966</v>
+        <v>153.8914559122968</v>
       </c>
       <c r="K9" t="n">
-        <v>390.9248511546887</v>
+        <v>390.924851154689</v>
       </c>
       <c r="L9" t="n">
-        <v>216.8310029110241</v>
+        <v>562.2293460434357</v>
       </c>
       <c r="M9" t="n">
-        <v>272.5839452326769</v>
+        <v>272.5839452326774</v>
       </c>
       <c r="N9" t="n">
-        <v>321.2881924402026</v>
+        <v>294.3526179477262</v>
       </c>
       <c r="O9" t="n">
-        <v>640.693220672769</v>
+        <v>640.6932206727695</v>
       </c>
       <c r="P9" t="n">
-        <v>497.0379782662357</v>
+        <v>178.5752096262989</v>
       </c>
       <c r="Q9" t="n">
-        <v>68.94936777512186</v>
+        <v>68.94936777512211</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.655761194383459</v>
+        <v>3.655761194383587</v>
       </c>
       <c r="K10" t="n">
-        <v>137.1558585605513</v>
+        <v>137.1558585605515</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5995855279019</v>
+        <v>231.5995855279021</v>
       </c>
       <c r="M10" t="n">
-        <v>254.6833540129583</v>
+        <v>254.6833540129586</v>
       </c>
       <c r="N10" t="n">
-        <v>254.1170646370415</v>
+        <v>254.1170646370418</v>
       </c>
       <c r="O10" t="n">
-        <v>218.5401629538112</v>
+        <v>218.5401629538114</v>
       </c>
       <c r="P10" t="n">
-        <v>163.2405985091126</v>
+        <v>163.2405985091128</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.74147023887257</v>
+        <v>28.74147023887269</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>399.7799124276244</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>625.3180581584689</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932469</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>590.9552686077532</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>469.5171537062434</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>303.9284889151087</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>90.5209569215657</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>283.1818887458959</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457673</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>93.92014471042322</v>
+        <v>518.4987618625139</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313806</v>
+        <v>105.9950462899274</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>477.7490432987358</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>363.9073766062163</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.839013321163</v>
+        <v>192.8390133211627</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936553</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>61.18259316701821</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112333</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882111</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765376</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>96.87566713998338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>50.67371142569991</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>540.0117974686565</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>57.6594740049667</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,7 +35969,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>261.348781916454</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>91.80490927281453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37163,7 +37163,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,10 +37637,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>82.88662398579301</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
